--- a/Code/Results/Cases/Case_3_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_236/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.67266571592387</v>
+        <v>1.191149241965945</v>
       </c>
       <c r="C2">
-        <v>0.5382078612218777</v>
+        <v>0.304681282342159</v>
       </c>
       <c r="D2">
-        <v>0.02403642345771217</v>
+        <v>0.03554342681638367</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.118271990014108</v>
+        <v>1.162288920033703</v>
       </c>
       <c r="G2">
-        <v>1.077463450156642</v>
+        <v>1.0353478258574</v>
       </c>
       <c r="H2">
-        <v>0.6601572237017876</v>
+        <v>1.004681198613156</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1737259958472919</v>
+        <v>0.261540636237207</v>
       </c>
       <c r="M2">
-        <v>0.4398667127938864</v>
+        <v>0.2732519803259521</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.315253748938687</v>
+        <v>1.092375800543607</v>
       </c>
       <c r="C3">
-        <v>0.4909504086719494</v>
+        <v>0.288608069949106</v>
       </c>
       <c r="D3">
-        <v>0.02495514460512815</v>
+        <v>0.03573895721599563</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.021854752098093</v>
+        <v>1.147348640052016</v>
       </c>
       <c r="G3">
-        <v>0.9833926112420812</v>
+        <v>1.020412879532131</v>
       </c>
       <c r="H3">
-        <v>0.6252507003265322</v>
+        <v>1.003860668710388</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1609457345436454</v>
+        <v>0.2599245044806011</v>
       </c>
       <c r="M3">
-        <v>0.383106210196722</v>
+        <v>0.2587031318095541</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.097561205701084</v>
+        <v>1.032125036258265</v>
       </c>
       <c r="C4">
-        <v>0.4619543588046042</v>
+        <v>0.2786406727271071</v>
       </c>
       <c r="D4">
-        <v>0.02554058996428665</v>
+        <v>0.03586692739795794</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652909944300916</v>
+        <v>1.139041009844064</v>
       </c>
       <c r="G4">
-        <v>0.9284273173994393</v>
+        <v>1.012086444853423</v>
       </c>
       <c r="H4">
-        <v>0.605365209071536</v>
+        <v>1.0039735264276</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1533741047164767</v>
+        <v>0.2590639174528562</v>
       </c>
       <c r="M4">
-        <v>0.3486510912318579</v>
+        <v>0.2498976755186533</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.009220789466951</v>
+        <v>1.007672540373221</v>
       </c>
       <c r="C5">
-        <v>0.4501360532304659</v>
+        <v>0.2745542312934504</v>
       </c>
       <c r="D5">
-        <v>0.02578431865224395</v>
+        <v>0.03592107206494077</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9428496624544067</v>
+        <v>1.135872422126468</v>
       </c>
       <c r="G5">
-        <v>0.906672641900002</v>
+        <v>1.008904433060295</v>
       </c>
       <c r="H5">
-        <v>0.5976237183077586</v>
+        <v>1.004174217822211</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1503529837749014</v>
+        <v>0.2587463391905374</v>
       </c>
       <c r="M5">
-        <v>0.3346972059828275</v>
+        <v>0.2463415162241063</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.994572352329101</v>
+        <v>1.003618287047232</v>
       </c>
       <c r="C6">
-        <v>0.4481732999864221</v>
+        <v>0.2738741950434473</v>
       </c>
       <c r="D6">
-        <v>0.02582509529409727</v>
+        <v>0.03593018346338006</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9391585550209101</v>
+        <v>1.13535935184251</v>
       </c>
       <c r="G6">
-        <v>0.903097560809087</v>
+        <v>1.008388779626458</v>
       </c>
       <c r="H6">
-        <v>0.5963593578823492</v>
+        <v>1.004216875377665</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1498550803191563</v>
+        <v>0.2586956056706384</v>
       </c>
       <c r="M6">
-        <v>0.3323850647793378</v>
+        <v>0.2457529611753486</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.096368404181703</v>
+        <v>1.031794855084343</v>
       </c>
       <c r="C7">
-        <v>0.4617949909952017</v>
+        <v>0.2785856612117925</v>
       </c>
       <c r="D7">
-        <v>0.02554385636227252</v>
+        <v>0.03586764952303945</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9649859464837931</v>
+        <v>1.13899740033996</v>
       </c>
       <c r="G7">
-        <v>0.9281313927217099</v>
+        <v>1.012042677909676</v>
       </c>
       <c r="H7">
-        <v>0.6052593732787557</v>
+        <v>1.00397560713543</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1533331063869596</v>
+        <v>0.2590595003941658</v>
       </c>
       <c r="M7">
-        <v>0.3484625687525025</v>
+        <v>0.2498495857248813</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.549020026152732</v>
+        <v>1.15701010271323</v>
       </c>
       <c r="C8">
-        <v>0.5219047195666633</v>
+        <v>0.2991597072457353</v>
       </c>
       <c r="D8">
-        <v>0.02434863049272273</v>
+        <v>0.03560920658721223</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.084446237912942</v>
+        <v>1.156957294974546</v>
       </c>
       <c r="G8">
-        <v>1.044411240386026</v>
+        <v>1.030022497230135</v>
       </c>
       <c r="H8">
-        <v>0.6477834307550268</v>
+        <v>1.004270068122565</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.169259125474909</v>
+        <v>0.2609560500914867</v>
       </c>
       <c r="M8">
-        <v>0.4202055166405287</v>
+        <v>0.2682090792311556</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.454184163724847</v>
+        <v>1.405696867298275</v>
       </c>
       <c r="C9">
-        <v>0.6403061651130599</v>
+        <v>0.3387226407190553</v>
       </c>
       <c r="D9">
-        <v>0.0221854301123745</v>
+        <v>0.03516495128493702</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.342287646951277</v>
+        <v>1.199088369961373</v>
       </c>
       <c r="G9">
-        <v>1.297483835555937</v>
+        <v>1.072026639807717</v>
       </c>
       <c r="H9">
-        <v>0.74477734494522</v>
+        <v>1.009758329917275</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2029163576046713</v>
+        <v>0.2657211480586028</v>
       </c>
       <c r="M9">
-        <v>0.5646667782243782</v>
+        <v>0.305224475350812</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.135370243456862</v>
+        <v>1.590334237158118</v>
       </c>
       <c r="C10">
-        <v>0.7281894060299692</v>
+        <v>0.3673124088883526</v>
       </c>
       <c r="D10">
-        <v>0.02072484269710451</v>
+        <v>0.03487638532372017</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.550159092931381</v>
+        <v>1.234319166145283</v>
       </c>
       <c r="G10">
-        <v>1.503078434174881</v>
+        <v>1.107075336253928</v>
       </c>
       <c r="H10">
-        <v>0.8263611488036986</v>
+        <v>1.016811066522564</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2294902836271291</v>
+        <v>0.2698616281523556</v>
       </c>
       <c r="M10">
-        <v>0.674074213427879</v>
+        <v>0.3330404293678342</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.450143049631038</v>
+        <v>1.67475349782211</v>
       </c>
       <c r="C11">
-        <v>0.7685093194425008</v>
+        <v>0.3802152803546903</v>
       </c>
       <c r="D11">
-        <v>0.02009348311357151</v>
+        <v>0.03475326693886061</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.649741798573231</v>
+        <v>1.251289278653147</v>
       </c>
       <c r="G11">
-        <v>1.601975831038231</v>
+        <v>1.123945941331186</v>
       </c>
       <c r="H11">
-        <v>0.8662244287283727</v>
+        <v>1.020681324093516</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2420713592050134</v>
+        <v>0.2718845900359383</v>
       </c>
       <c r="M11">
-        <v>0.724799714770775</v>
+        <v>0.3458304328166619</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.570171313868229</v>
+        <v>1.706782198486167</v>
       </c>
       <c r="C12">
-        <v>0.7838401392122023</v>
+        <v>0.3850864492578694</v>
       </c>
       <c r="D12">
-        <v>0.01985968507645453</v>
+        <v>0.0347078136492236</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.688267991240238</v>
+        <v>1.257852118397352</v>
       </c>
       <c r="G12">
-        <v>1.640300940807691</v>
+        <v>1.130468920760848</v>
       </c>
       <c r="H12">
-        <v>0.8817626914080847</v>
+        <v>1.022242519716599</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2469147504492639</v>
+        <v>0.272670708335923</v>
       </c>
       <c r="M12">
-        <v>0.744168090071426</v>
+        <v>0.3506933043234142</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.54428197710422</v>
+        <v>1.699881539908574</v>
       </c>
       <c r="C13">
-        <v>0.780535359997657</v>
+        <v>0.3840380185825722</v>
       </c>
       <c r="D13">
-        <v>0.01990979329174181</v>
+        <v>0.03471755088522244</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.67993276435476</v>
+        <v>1.256432601624354</v>
       </c>
       <c r="G13">
-        <v>1.632006283758074</v>
+        <v>1.129058082063153</v>
       </c>
       <c r="H13">
-        <v>0.8783957395077664</v>
+        <v>1.021902029050977</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2458679735038629</v>
+        <v>0.2725005109717955</v>
       </c>
       <c r="M13">
-        <v>0.7399892785344875</v>
+        <v>0.3496451279009491</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.460000427246598</v>
+        <v>1.677387298883161</v>
       </c>
       <c r="C14">
-        <v>0.7697692590444944</v>
+        <v>0.3806163328516732</v>
       </c>
       <c r="D14">
-        <v>0.02007413916517109</v>
+        <v>0.03474950405818333</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.652894432920505</v>
+        <v>1.251826463724967</v>
       </c>
       <c r="G14">
-        <v>1.605110701708583</v>
+        <v>1.124479889493415</v>
       </c>
       <c r="H14">
-        <v>0.8674936044259596</v>
+        <v>1.020807845910724</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2424681892149181</v>
+        <v>0.2719488622054769</v>
       </c>
       <c r="M14">
-        <v>0.7263898249901573</v>
+        <v>0.3462301120761353</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.40848770115764</v>
+        <v>1.663616853504891</v>
       </c>
       <c r="C15">
-        <v>0.7631832825307185</v>
+        <v>0.3785185125626356</v>
       </c>
       <c r="D15">
-        <v>0.02017551108917282</v>
+        <v>0.03476922844548724</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.63644196675763</v>
+        <v>1.249022892585558</v>
       </c>
       <c r="G15">
-        <v>1.588753537679139</v>
+        <v>1.121693158370846</v>
       </c>
       <c r="H15">
-        <v>0.860874906299756</v>
+        <v>1.02015009152214</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2403963027614537</v>
+        <v>0.271613575142382</v>
       </c>
       <c r="M15">
-        <v>0.7180812719775957</v>
+        <v>0.3441408644410231</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.114908149647135</v>
+        <v>1.584825792229879</v>
       </c>
       <c r="C16">
-        <v>0.7255623892052085</v>
+        <v>0.3664671001866679</v>
       </c>
       <c r="D16">
-        <v>0.02076681223429944</v>
+        <v>0.0348845951476271</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.543760002832187</v>
+        <v>1.233229195950599</v>
       </c>
       <c r="G16">
-        <v>1.496731847899554</v>
+        <v>1.10599155231705</v>
       </c>
       <c r="H16">
-        <v>0.823815270918459</v>
+        <v>1.016571492404836</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.228678688628051</v>
+        <v>0.2697322299847826</v>
       </c>
       <c r="M16">
-        <v>0.6707802650237298</v>
+        <v>0.332207313727146</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.936146756705114</v>
+        <v>1.536599038683391</v>
       </c>
       <c r="C17">
-        <v>0.7025797184680584</v>
+        <v>0.3590475635885753</v>
       </c>
       <c r="D17">
-        <v>0.0211383760239876</v>
+        <v>0.03495745429739117</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.48825264609259</v>
+        <v>1.223782596267299</v>
       </c>
       <c r="G17">
-        <v>1.441724730373323</v>
+        <v>1.096597333009328</v>
       </c>
       <c r="H17">
-        <v>0.8018169759255045</v>
+        <v>1.014545978459211</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2216221521659207</v>
+        <v>0.2686138096952391</v>
       </c>
       <c r="M17">
-        <v>0.642022514190522</v>
+        <v>0.3249213709829846</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.833780615265994</v>
+        <v>1.508900480803788</v>
       </c>
       <c r="C18">
-        <v>0.6893919344234405</v>
+        <v>0.3547703756017881</v>
       </c>
       <c r="D18">
-        <v>0.0213551658893234</v>
+        <v>0.03500012839929845</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.456792664682979</v>
+        <v>1.218437906154605</v>
       </c>
       <c r="G18">
-        <v>1.410584924904612</v>
+        <v>1.091281188688043</v>
       </c>
       <c r="H18">
-        <v>0.7894198959101573</v>
+        <v>1.013443234936744</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2176092213086633</v>
+        <v>0.2679836473875099</v>
       </c>
       <c r="M18">
-        <v>0.6255702841842563</v>
+        <v>0.3207435287767808</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.799195315697375</v>
+        <v>1.499529141597066</v>
       </c>
       <c r="C19">
-        <v>0.6849317579268188</v>
+        <v>0.3533205358388614</v>
       </c>
       <c r="D19">
-        <v>0.02142908080912065</v>
+        <v>0.03501470903194814</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.446218242888776</v>
+        <v>1.216643498590244</v>
       </c>
       <c r="G19">
-        <v>1.400124253060937</v>
+        <v>1.089496167879048</v>
       </c>
       <c r="H19">
-        <v>0.7852650218958104</v>
+        <v>1.013080548303577</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2162581364006684</v>
+        <v>0.2677725387578818</v>
       </c>
       <c r="M19">
-        <v>0.6200143938157652</v>
+        <v>0.3193311895605362</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.955128488924402</v>
+        <v>1.541728701944919</v>
       </c>
       <c r="C20">
-        <v>0.7050229372262891</v>
+        <v>0.3598383870735233</v>
       </c>
       <c r="D20">
-        <v>0.02109850048917572</v>
+        <v>0.03494961891477644</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.49411257845658</v>
+        <v>1.224779011318944</v>
       </c>
       <c r="G20">
-        <v>1.447527997589759</v>
+        <v>1.097588334229783</v>
       </c>
       <c r="H20">
-        <v>0.8041319349000844</v>
+        <v>1.014755149212391</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2223685340580346</v>
+        <v>0.2687315091051232</v>
       </c>
       <c r="M20">
-        <v>0.6450745155470443</v>
+        <v>0.3256956434840959</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.484732342921632</v>
+        <v>1.683992751516996</v>
       </c>
       <c r="C21">
-        <v>0.7729297113695281</v>
+        <v>0.3816217691348527</v>
       </c>
       <c r="D21">
-        <v>0.0200257187390207</v>
+        <v>0.03474008693474318</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.660813286706954</v>
+        <v>1.253175682415957</v>
       </c>
       <c r="G21">
-        <v>1.61298597196452</v>
+        <v>1.125820957365192</v>
       </c>
       <c r="H21">
-        <v>0.8706834018370557</v>
+        <v>1.021126635690337</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2434645672670683</v>
+        <v>0.2721103500911966</v>
       </c>
       <c r="M21">
-        <v>0.730379789252531</v>
+        <v>0.3472326540318704</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.835769541167622</v>
+        <v>1.777325671196706</v>
       </c>
       <c r="C22">
-        <v>0.8176826890110362</v>
+        <v>0.3957717637246674</v>
       </c>
       <c r="D22">
-        <v>0.01935570493607131</v>
+        <v>0.03460995812067935</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.774571798051795</v>
+        <v>1.272531359151671</v>
       </c>
       <c r="G22">
-        <v>1.726277303737362</v>
+        <v>1.145056819358615</v>
       </c>
       <c r="H22">
-        <v>0.9167861000186406</v>
+        <v>1.02584827659706</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.257718291795257</v>
+        <v>0.2744355889782071</v>
       </c>
       <c r="M22">
-        <v>0.7870748917708283</v>
+        <v>0.3614224173926459</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.647919645229024</v>
+        <v>1.727479770736352</v>
       </c>
       <c r="C23">
-        <v>0.7937582782178367</v>
+        <v>0.3882276081896237</v>
       </c>
       <c r="D23">
-        <v>0.0197102589850644</v>
+        <v>0.034678787941818</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.713382696160011</v>
+        <v>1.262127644199936</v>
       </c>
       <c r="G23">
-        <v>1.665303060987725</v>
+        <v>1.134718132700328</v>
       </c>
       <c r="H23">
-        <v>0.8919245820933668</v>
+        <v>1.023277094234629</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2500651420158704</v>
+        <v>0.2731838569822855</v>
       </c>
       <c r="M23">
-        <v>0.756721327256372</v>
+        <v>0.3538386465715249</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.946545592052018</v>
+        <v>1.539409495045902</v>
       </c>
       <c r="C24">
-        <v>0.7039182803442827</v>
+        <v>0.3594808918955152</v>
       </c>
       <c r="D24">
-        <v>0.02111651837462603</v>
+        <v>0.03495315884122263</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.491461902357017</v>
+        <v>1.224328263375568</v>
       </c>
       <c r="G24">
-        <v>1.444902838913691</v>
+        <v>1.09714003878301</v>
       </c>
       <c r="H24">
-        <v>0.8030845666695257</v>
+        <v>1.014660390794717</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2220309584841829</v>
+        <v>0.2686782572326791</v>
       </c>
       <c r="M24">
-        <v>0.6436944551441997</v>
+        <v>0.3253455607974587</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.206903622848927</v>
+        <v>1.338083095683317</v>
       </c>
       <c r="C25">
-        <v>0.6081635567061312</v>
+        <v>0.3281036242820505</v>
       </c>
       <c r="D25">
-        <v>0.02274956189787503</v>
+        <v>0.03527847064234813</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.269614023186861</v>
+        <v>1.186944288039598</v>
       </c>
       <c r="G25">
-        <v>1.225910957424674</v>
+        <v>1.059933389748068</v>
       </c>
       <c r="H25">
-        <v>0.7168836168145845</v>
+        <v>1.007745113807516</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1935155537644988</v>
+        <v>0.2643198896732031</v>
       </c>
       <c r="M25">
-        <v>0.5250874400372822</v>
+        <v>0.2951020874570744</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_236/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.191149241965945</v>
+        <v>2.67266571592387</v>
       </c>
       <c r="C2">
-        <v>0.304681282342159</v>
+        <v>0.5382078612219914</v>
       </c>
       <c r="D2">
-        <v>0.03554342681638367</v>
+        <v>0.02403642345764467</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.162288920033703</v>
+        <v>1.118271990014108</v>
       </c>
       <c r="G2">
-        <v>1.0353478258574</v>
+        <v>1.077463450156657</v>
       </c>
       <c r="H2">
-        <v>1.004681198613156</v>
+        <v>0.6601572237016455</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.261540636237207</v>
+        <v>0.1737259958472492</v>
       </c>
       <c r="M2">
-        <v>0.2732519803259521</v>
+        <v>0.4398667127939007</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.092375800543607</v>
+        <v>2.315253748938687</v>
       </c>
       <c r="C3">
-        <v>0.288608069949106</v>
+        <v>0.4909504086716936</v>
       </c>
       <c r="D3">
-        <v>0.03573895721599563</v>
+        <v>0.02495514460515658</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.147348640052016</v>
+        <v>1.021854752098079</v>
       </c>
       <c r="G3">
-        <v>1.020412879532131</v>
+        <v>0.9833926112419675</v>
       </c>
       <c r="H3">
-        <v>1.003860668710388</v>
+        <v>0.625250700326518</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2599245044806011</v>
+        <v>0.1609457345437164</v>
       </c>
       <c r="M3">
-        <v>0.2587031318095541</v>
+        <v>0.3831062101967362</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.032125036258265</v>
+        <v>2.09756120570097</v>
       </c>
       <c r="C4">
-        <v>0.2786406727271071</v>
+        <v>0.4619543588046042</v>
       </c>
       <c r="D4">
-        <v>0.03586692739795794</v>
+        <v>0.02554058996456732</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.139041009844064</v>
+        <v>0.9652909944300632</v>
       </c>
       <c r="G4">
-        <v>1.012086444853423</v>
+        <v>0.9284273173994393</v>
       </c>
       <c r="H4">
-        <v>1.0039735264276</v>
+        <v>0.605365209071536</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2590639174528562</v>
+        <v>0.1533741047165265</v>
       </c>
       <c r="M4">
-        <v>0.2498976755186533</v>
+        <v>0.3486510912318508</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.007672540373221</v>
+        <v>2.009220789467008</v>
       </c>
       <c r="C5">
-        <v>0.2745542312934504</v>
+        <v>0.4501360532304375</v>
       </c>
       <c r="D5">
-        <v>0.03592107206494077</v>
+        <v>0.02578431865212494</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.135872422126468</v>
+        <v>0.9428496624543925</v>
       </c>
       <c r="G5">
-        <v>1.008904433060295</v>
+        <v>0.9066726418999878</v>
       </c>
       <c r="H5">
-        <v>1.004174217822211</v>
+        <v>0.5976237183077586</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2587463391905374</v>
+        <v>0.150352983774944</v>
       </c>
       <c r="M5">
-        <v>0.2463415162241063</v>
+        <v>0.3346972059828275</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.003618287047232</v>
+        <v>1.994572352329271</v>
       </c>
       <c r="C6">
-        <v>0.2738741950434473</v>
+        <v>0.4481732999869052</v>
       </c>
       <c r="D6">
-        <v>0.03593018346338006</v>
+        <v>0.02582509529409016</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.13535935184251</v>
+        <v>0.9391585550209243</v>
       </c>
       <c r="G6">
-        <v>1.008388779626458</v>
+        <v>0.903097560809087</v>
       </c>
       <c r="H6">
-        <v>1.004216875377665</v>
+        <v>0.5963593578823492</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2586956056706384</v>
+        <v>0.1498550803191563</v>
       </c>
       <c r="M6">
-        <v>0.2457529611753486</v>
+        <v>0.3323850647793449</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.031794855084343</v>
+        <v>2.096368404181874</v>
       </c>
       <c r="C7">
-        <v>0.2785856612117925</v>
+        <v>0.4617949909951733</v>
       </c>
       <c r="D7">
-        <v>0.03586764952303945</v>
+        <v>0.02554385636238976</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.13899740033996</v>
+        <v>0.9649859464837931</v>
       </c>
       <c r="G7">
-        <v>1.012042677909676</v>
+        <v>0.9281313927217809</v>
       </c>
       <c r="H7">
-        <v>1.00397560713543</v>
+        <v>0.6052593732787557</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2590595003941658</v>
+        <v>0.153333106386988</v>
       </c>
       <c r="M7">
-        <v>0.2498495857248813</v>
+        <v>0.3484625687524812</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.15701010271323</v>
+        <v>2.549020026152505</v>
       </c>
       <c r="C8">
-        <v>0.2991597072457353</v>
+        <v>0.5219047195666633</v>
       </c>
       <c r="D8">
-        <v>0.03560920658721223</v>
+        <v>0.02434863049272273</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.156957294974546</v>
+        <v>1.084446237912942</v>
       </c>
       <c r="G8">
-        <v>1.030022497230135</v>
+        <v>1.04441124038604</v>
       </c>
       <c r="H8">
-        <v>1.004270068122565</v>
+        <v>0.6477834307551404</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2609560500914867</v>
+        <v>0.1692591254749729</v>
       </c>
       <c r="M8">
-        <v>0.2682090792311556</v>
+        <v>0.4202055166405145</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.405696867298275</v>
+        <v>3.45418416372496</v>
       </c>
       <c r="C9">
-        <v>0.3387226407190553</v>
+        <v>0.6403061651131736</v>
       </c>
       <c r="D9">
-        <v>0.03516495128493702</v>
+        <v>0.02218543011239582</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.199088369961373</v>
+        <v>1.342287646951277</v>
       </c>
       <c r="G9">
-        <v>1.072026639807717</v>
+        <v>1.297483835555937</v>
       </c>
       <c r="H9">
-        <v>1.009758329917275</v>
+        <v>0.74477734494522</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2657211480586028</v>
+        <v>0.2029163576046926</v>
       </c>
       <c r="M9">
-        <v>0.305224475350812</v>
+        <v>0.5646667782243711</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.590334237158118</v>
+        <v>4.135370243457032</v>
       </c>
       <c r="C10">
-        <v>0.3673124088883526</v>
+        <v>0.7281894060302818</v>
       </c>
       <c r="D10">
-        <v>0.03487638532372017</v>
+        <v>0.02072484269701924</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.234319166145283</v>
+        <v>1.550159092931366</v>
       </c>
       <c r="G10">
-        <v>1.107075336253928</v>
+        <v>1.503078434174739</v>
       </c>
       <c r="H10">
-        <v>1.016811066522564</v>
+        <v>0.826361148803727</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2698616281523556</v>
+        <v>0.2294902836271291</v>
       </c>
       <c r="M10">
-        <v>0.3330404293678342</v>
+        <v>0.674074213427879</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.67475349782211</v>
+        <v>4.450143049631208</v>
       </c>
       <c r="C11">
-        <v>0.3802152803546903</v>
+        <v>0.7685093194422734</v>
       </c>
       <c r="D11">
-        <v>0.03475326693886061</v>
+        <v>0.02009348311345249</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.251289278653147</v>
+        <v>1.649741798573245</v>
       </c>
       <c r="G11">
-        <v>1.123945941331186</v>
+        <v>1.601975831038231</v>
       </c>
       <c r="H11">
-        <v>1.020681324093516</v>
+        <v>0.8662244287283443</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2718845900359383</v>
+        <v>0.2420713592050276</v>
       </c>
       <c r="M11">
-        <v>0.3458304328166619</v>
+        <v>0.7247997147707608</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.706782198486167</v>
+        <v>4.570171313868286</v>
       </c>
       <c r="C12">
-        <v>0.3850864492578694</v>
+        <v>0.783840139212316</v>
       </c>
       <c r="D12">
-        <v>0.0347078136492236</v>
+        <v>0.01985968507653979</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.257852118397352</v>
+        <v>1.688267991240224</v>
       </c>
       <c r="G12">
-        <v>1.130468920760848</v>
+        <v>1.640300940807691</v>
       </c>
       <c r="H12">
-        <v>1.022242519716599</v>
+        <v>0.8817626914080563</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.272670708335923</v>
+        <v>0.2469147504492497</v>
       </c>
       <c r="M12">
-        <v>0.3506933043234142</v>
+        <v>0.7441680900714331</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.699881539908574</v>
+        <v>4.544281977104333</v>
       </c>
       <c r="C13">
-        <v>0.3840380185825722</v>
+        <v>0.7805353599979412</v>
       </c>
       <c r="D13">
-        <v>0.03471755088522244</v>
+        <v>0.01990979329162101</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.256432601624354</v>
+        <v>1.67993276435476</v>
       </c>
       <c r="G13">
-        <v>1.129058082063153</v>
+        <v>1.632006283758045</v>
       </c>
       <c r="H13">
-        <v>1.021902029050977</v>
+        <v>0.8783957395078517</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2725005109717955</v>
+        <v>0.2458679735038345</v>
       </c>
       <c r="M13">
-        <v>0.3496451279009491</v>
+        <v>0.7399892785345017</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.677387298883161</v>
+        <v>4.460000427246598</v>
       </c>
       <c r="C14">
-        <v>0.3806163328516732</v>
+        <v>0.7697692590443239</v>
       </c>
       <c r="D14">
-        <v>0.03474950405818333</v>
+        <v>0.02007413916525635</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.251826463724967</v>
+        <v>1.652894432920505</v>
       </c>
       <c r="G14">
-        <v>1.124479889493415</v>
+        <v>1.605110701708639</v>
       </c>
       <c r="H14">
-        <v>1.020807845910724</v>
+        <v>0.8674936044260448</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2719488622054769</v>
+        <v>0.2424681892149181</v>
       </c>
       <c r="M14">
-        <v>0.3462301120761353</v>
+        <v>0.7263898249901786</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.663616853504891</v>
+        <v>4.40848770115764</v>
       </c>
       <c r="C15">
-        <v>0.3785185125626356</v>
+        <v>0.7631832825309175</v>
       </c>
       <c r="D15">
-        <v>0.03476922844548724</v>
+        <v>0.02017551108918525</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.249022892585558</v>
+        <v>1.63644196675763</v>
       </c>
       <c r="G15">
-        <v>1.121693158370846</v>
+        <v>1.588753537679167</v>
       </c>
       <c r="H15">
-        <v>1.02015009152214</v>
+        <v>0.8608749062998697</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.271613575142382</v>
+        <v>0.2403963027613827</v>
       </c>
       <c r="M15">
-        <v>0.3441408644410231</v>
+        <v>0.7180812719775957</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.584825792229879</v>
+        <v>4.114908149647192</v>
       </c>
       <c r="C16">
-        <v>0.3664671001866679</v>
+        <v>0.7255623892051801</v>
       </c>
       <c r="D16">
-        <v>0.0348845951476271</v>
+        <v>0.02076681223440247</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.233229195950599</v>
+        <v>1.543760002832201</v>
       </c>
       <c r="G16">
-        <v>1.10599155231705</v>
+        <v>1.496731847899639</v>
       </c>
       <c r="H16">
-        <v>1.016571492404836</v>
+        <v>0.823815270918459</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2697322299847826</v>
+        <v>0.2286786886280083</v>
       </c>
       <c r="M16">
-        <v>0.332207313727146</v>
+        <v>0.6707802650237227</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.536599038683391</v>
+        <v>3.936146756705114</v>
       </c>
       <c r="C17">
-        <v>0.3590475635885753</v>
+        <v>0.7025797184679163</v>
       </c>
       <c r="D17">
-        <v>0.03495745429739117</v>
+        <v>0.0211383760239805</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.223782596267299</v>
+        <v>1.488252646092576</v>
       </c>
       <c r="G17">
-        <v>1.096597333009328</v>
+        <v>1.441724730373352</v>
       </c>
       <c r="H17">
-        <v>1.014545978459211</v>
+        <v>0.8018169759254192</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2686138096952391</v>
+        <v>0.2216221521659349</v>
       </c>
       <c r="M17">
-        <v>0.3249213709829846</v>
+        <v>0.6420225141905362</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.508900480803788</v>
+        <v>3.833780615265994</v>
       </c>
       <c r="C18">
-        <v>0.3547703756017881</v>
+        <v>0.689391934423611</v>
       </c>
       <c r="D18">
-        <v>0.03500012839929845</v>
+        <v>0.02135516588930741</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.218437906154605</v>
+        <v>1.456792664682979</v>
       </c>
       <c r="G18">
-        <v>1.091281188688043</v>
+        <v>1.410584924904697</v>
       </c>
       <c r="H18">
-        <v>1.013443234936744</v>
+        <v>0.7894198959101573</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2679836473875099</v>
+        <v>0.2176092213086918</v>
       </c>
       <c r="M18">
-        <v>0.3207435287767808</v>
+        <v>0.6255702841842421</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.499529141597066</v>
+        <v>3.799195315697318</v>
       </c>
       <c r="C19">
-        <v>0.3533205358388614</v>
+        <v>0.6849317579270746</v>
       </c>
       <c r="D19">
-        <v>0.03501470903194814</v>
+        <v>0.0214290808091917</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.216643498590244</v>
+        <v>1.446218242888776</v>
       </c>
       <c r="G19">
-        <v>1.089496167879048</v>
+        <v>1.400124253060937</v>
       </c>
       <c r="H19">
-        <v>1.013080548303577</v>
+        <v>0.7852650218958104</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2677725387578818</v>
+        <v>0.2162581364005973</v>
       </c>
       <c r="M19">
-        <v>0.3193311895605362</v>
+        <v>0.6200143938157368</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.541728701944919</v>
+        <v>3.955128488924231</v>
       </c>
       <c r="C20">
-        <v>0.3598383870735233</v>
+        <v>0.7050229372261185</v>
       </c>
       <c r="D20">
-        <v>0.03494961891477644</v>
+        <v>0.02109850048950257</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.224779011318944</v>
+        <v>1.494112578456594</v>
       </c>
       <c r="G20">
-        <v>1.097588334229783</v>
+        <v>1.447527997589731</v>
       </c>
       <c r="H20">
-        <v>1.014755149212391</v>
+        <v>0.8041319348999707</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2687315091051232</v>
+        <v>0.2223685340580062</v>
       </c>
       <c r="M20">
-        <v>0.3256956434840959</v>
+        <v>0.6450745155470443</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.683992751516996</v>
+        <v>4.484732342921802</v>
       </c>
       <c r="C21">
-        <v>0.3816217691348527</v>
+        <v>0.7729297113696134</v>
       </c>
       <c r="D21">
-        <v>0.03474008693474318</v>
+        <v>0.02002571873901715</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.253175682415957</v>
+        <v>1.660813286706968</v>
       </c>
       <c r="G21">
-        <v>1.125820957365192</v>
+        <v>1.61298597196452</v>
       </c>
       <c r="H21">
-        <v>1.021126635690337</v>
+        <v>0.8706834018371978</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2721103500911966</v>
+        <v>0.2434645672670541</v>
       </c>
       <c r="M21">
-        <v>0.3472326540318704</v>
+        <v>0.7303797892525381</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.777325671196706</v>
+        <v>4.835769541167792</v>
       </c>
       <c r="C22">
-        <v>0.3957717637246674</v>
+        <v>0.8176826890111784</v>
       </c>
       <c r="D22">
-        <v>0.03460995812067935</v>
+        <v>0.01935570493584038</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.272531359151671</v>
+        <v>1.774571798051781</v>
       </c>
       <c r="G22">
-        <v>1.145056819358615</v>
+        <v>1.726277303737362</v>
       </c>
       <c r="H22">
-        <v>1.02584827659706</v>
+        <v>0.916786100018669</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2744355889782071</v>
+        <v>0.2577182917952854</v>
       </c>
       <c r="M22">
-        <v>0.3614224173926459</v>
+        <v>0.7870748917708283</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.727479770736352</v>
+        <v>4.647919645229194</v>
       </c>
       <c r="C23">
-        <v>0.3882276081896237</v>
+        <v>0.793758278217922</v>
       </c>
       <c r="D23">
-        <v>0.034678787941818</v>
+        <v>0.0197102589852669</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.262127644199936</v>
+        <v>1.713382696160011</v>
       </c>
       <c r="G23">
-        <v>1.134718132700328</v>
+        <v>1.665303060987753</v>
       </c>
       <c r="H23">
-        <v>1.023277094234629</v>
+        <v>0.8919245820933952</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2731838569822855</v>
+        <v>0.2500651420159699</v>
       </c>
       <c r="M23">
-        <v>0.3538386465715249</v>
+        <v>0.7567213272563862</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.539409495045902</v>
+        <v>3.946545592052018</v>
       </c>
       <c r="C24">
-        <v>0.3594808918955152</v>
+        <v>0.7039182803445954</v>
       </c>
       <c r="D24">
-        <v>0.03495315884122263</v>
+        <v>0.02111651837453721</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.224328263375568</v>
+        <v>1.491461902357031</v>
       </c>
       <c r="G24">
-        <v>1.09714003878301</v>
+        <v>1.444902838913691</v>
       </c>
       <c r="H24">
-        <v>1.014660390794717</v>
+        <v>0.8030845666696109</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2686782572326791</v>
+        <v>0.2220309584842539</v>
       </c>
       <c r="M24">
-        <v>0.3253455607974587</v>
+        <v>0.6436944551441712</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.338083095683317</v>
+        <v>3.206903622848927</v>
       </c>
       <c r="C25">
-        <v>0.3281036242820505</v>
+        <v>0.6081635567061312</v>
       </c>
       <c r="D25">
-        <v>0.03527847064234813</v>
+        <v>0.02274956189795496</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.186944288039598</v>
+        <v>1.269614023186833</v>
       </c>
       <c r="G25">
-        <v>1.059933389748068</v>
+        <v>1.225910957424645</v>
       </c>
       <c r="H25">
-        <v>1.007745113807516</v>
+        <v>0.7168836168145845</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2643198896732031</v>
+        <v>0.1935155537644064</v>
       </c>
       <c r="M25">
-        <v>0.2951020874570744</v>
+        <v>0.525087440037268</v>
       </c>
       <c r="N25">
         <v>0</v>
